--- a/Excel_bootcamp/Functions Datasets start files/Functions.xlsx
+++ b/Excel_bootcamp/Functions Datasets start files/Functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddartha/Desktop/github/Excel/Excel_bootcamp/Functions Datasets start files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E36FE7B-60DC-AA47-9215-A4D4E5819116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099B3C33-A3F5-024E-9E0C-3065CD80E0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17400" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Formulas" sheetId="4" r:id="rId1"/>
@@ -12541,8 +12541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Excel_bootcamp/Functions Datasets start files/Functions.xlsx
+++ b/Excel_bootcamp/Functions Datasets start files/Functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddartha/Desktop/github/Excel/Excel_bootcamp/Functions Datasets start files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099B3C33-A3F5-024E-9E0C-3065CD80E0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD6BE76-D1D5-F94B-9EE0-E18849B3B2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Formulas" sheetId="4" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="290">
   <si>
     <t>Rank</t>
   </si>
@@ -947,6 +947,9 @@
   </si>
   <si>
     <t>*you have to enter all three criteria. This function will look for an exact match</t>
+  </si>
+  <si>
+    <t>wii</t>
   </si>
 </sst>
 </file>
@@ -956,7 +959,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1205,7 +1208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1315,6 +1318,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1369,14 +1374,13 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1384,126 +1388,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1534,36 +1418,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1899,23 +1753,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="63"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="K1" s="62" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="K1" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -2062,13 +1916,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
       <c r="K6" s="9">
         <v>14.97</v>
       </c>
@@ -2156,7 +2010,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2214,7 +2068,10 @@
       <c r="G2" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="13">
+        <f>COUNT(A2:F21)</f>
+        <v>40</v>
+      </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
@@ -2239,7 +2096,10 @@
       <c r="G3" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="13">
+        <f>COUNTA(A2:F21)</f>
+        <v>100</v>
+      </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -2264,13 +2124,16 @@
       <c r="G4" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="13">
+        <f>COUNTBLANK(A2:F21)</f>
+        <v>20</v>
+      </c>
       <c r="I4" s="18"/>
-      <c r="J4" s="75" t="s">
+      <c r="J4" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -2291,7 +2154,10 @@
       <c r="G5" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="13">
+        <f>COUNTIF(A2:E21,J5)</f>
+        <v>30</v>
+      </c>
       <c r="I5" s="18"/>
       <c r="J5" s="48" t="s">
         <v>191</v>
@@ -2318,11 +2184,20 @@
       <c r="G6" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="13">
+        <f>COUNTIFS(A2:A21,J6,B2:B21,K6,C2:C21,L6)</f>
+        <v>1</v>
+      </c>
       <c r="I6" s="18"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="K6" s="13">
+        <v>2006</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -2603,8 +2478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N1316"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:K2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2626,21 +2501,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="77" t="s">
         <v>257</v>
       </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
       <c r="L1" s="17"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="78" t="s">
         <v>267</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -2698,9 +2573,18 @@
       <c r="H4" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="13"/>
+      <c r="I4" s="13" t="str">
+        <f>LOOKUP(I2,B4:B11,A4:A11)</f>
+        <v>BL444</v>
+      </c>
+      <c r="J4" s="24" t="str">
+        <f>LOOKUP(I2,B4:B11,C4:C11)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K4" s="13">
+        <f>LOOKUP(I2,B4:B11,D4:D11)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -2725,9 +2609,18 @@
       <c r="H5" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="13"/>
+      <c r="I5" s="13" t="e">
+        <f>VLOOKUP(I2,A4:F11,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J5" s="24" t="str">
+        <f>VLOOKUP(I2,B4:F11,2,FALSE)</f>
+        <v>Yes</v>
+      </c>
+      <c r="K5" s="13">
+        <f>VLOOKUP(I2,B4:F11,3,FALSE)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -2752,7 +2645,10 @@
       <c r="H6" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="13" t="str">
+        <f>HLOOKUP(I2,B4:F11,1,FALSE)</f>
+        <v>Green</v>
+      </c>
       <c r="J6" s="24"/>
       <c r="K6" s="13"/>
     </row>
@@ -10040,7 +9936,7 @@
         <v>40.24</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L29" si="0">SUM(G3:K3)</f>
+        <f t="shared" ref="L3:L21" si="0">SUM(G3:K3)</f>
         <v>80.48</v>
       </c>
       <c r="M3" s="2">
@@ -11051,7 +10947,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="66" t="s">
         <v>88</v>
       </c>
       <c r="F22" s="12" t="s">
@@ -11080,7 +10976,7 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="64"/>
+      <c r="E23" s="66"/>
       <c r="F23" s="11" t="s">
         <v>76</v>
       </c>
@@ -11107,7 +11003,7 @@
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="64"/>
+      <c r="E24" s="66"/>
       <c r="F24" s="11" t="s">
         <v>79</v>
       </c>
@@ -11134,7 +11030,7 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="64"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="11" t="s">
         <v>77</v>
       </c>
@@ -11161,7 +11057,7 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="64"/>
+      <c r="E26" s="66"/>
       <c r="F26" s="11" t="s">
         <v>78</v>
       </c>
@@ -11188,7 +11084,7 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="64"/>
+      <c r="E27" s="66"/>
       <c r="F27" s="11" t="s">
         <v>82</v>
       </c>
@@ -11216,7 +11112,7 @@
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
-      <c r="E28" s="64"/>
+      <c r="E28" s="66"/>
       <c r="F28" s="11" t="s">
         <v>90</v>
       </c>
@@ -11243,7 +11139,7 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="E29" s="64"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="11" t="s">
         <v>80</v>
       </c>
@@ -11370,14 +11266,14 @@
       <c r="J2" s="22">
         <v>82.74</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
     </row>
     <row r="3" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -11729,14 +11625,14 @@
       <c r="J11" s="22">
         <v>28.31</v>
       </c>
-      <c r="L11" s="65" t="s">
+      <c r="L11" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
     </row>
     <row r="12" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -11866,7 +11762,7 @@
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
-      <c r="W14" s="77"/>
+      <c r="W14" s="59"/>
     </row>
     <row r="15" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -12541,7 +12437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -12563,14 +12459,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
       <c r="O1" s="17"/>
@@ -12584,12 +12480,12 @@
       <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
@@ -13015,19 +12911,19 @@
       <c r="W16" s="18"/>
     </row>
     <row r="17" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
@@ -13041,17 +12937,17 @@
       <c r="W17" s="18"/>
     </row>
     <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
@@ -13132,11 +13028,11 @@
       <c r="G20" s="13">
         <v>3</v>
       </c>
-      <c r="H20" s="78" t="str" cm="1">
+      <c r="H20" s="60" t="str" cm="1">
         <f t="array" ref="H20">_xlfn.IFS(G20&gt;20,D20*0.05,G20&gt;10,D20*0.03,G20&gt;5,D20*0.01,G20&lt;5,"")</f>
         <v/>
       </c>
-      <c r="I20" s="78" t="str" cm="1">
+      <c r="I20" s="60" t="str" cm="1">
         <f t="array" ref="I20">_xlfn.IFS(E20="Excellent",D20*0.02,E20="Good",D20*0.01,E20="Needs Improvement","")</f>
         <v/>
       </c>
@@ -13182,11 +13078,11 @@
       <c r="G21" s="13">
         <v>4</v>
       </c>
-      <c r="H21" s="78" t="str" cm="1">
+      <c r="H21" s="60" t="str" cm="1">
         <f t="array" ref="H21">_xlfn.IFS(G21&gt;20,D21*0.03,G21&gt;10,D21*0.02,G21&gt;5,D21*0.01,G21&lt;5,"")</f>
         <v/>
       </c>
-      <c r="I21" s="78" cm="1">
+      <c r="I21" s="60" cm="1">
         <f t="array" ref="I21">_xlfn.IFS(E21="Excellent",D21*0.02,E21="Good",D21*0.01,E21="Needs Improvement","")</f>
         <v>490</v>
       </c>
@@ -13232,11 +13128,11 @@
       <c r="G22" s="13">
         <v>8</v>
       </c>
-      <c r="H22" s="78" cm="1">
+      <c r="H22" s="60" cm="1">
         <f t="array" ref="H22">_xlfn.IFS(G22&gt;20,D22*0.03,G22&gt;10,D22*0.02,G22&gt;5,D22*0.01,G22&lt;5,"")</f>
         <v>1420</v>
       </c>
-      <c r="I22" s="78" cm="1">
+      <c r="I22" s="60" cm="1">
         <f t="array" ref="I22">_xlfn.IFS(E22="Excellent",D22*0.02,E22="Good",D22*0.01,E22="Needs Improvement","")</f>
         <v>2840</v>
       </c>
@@ -13248,7 +13144,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q22" s="66"/>
+      <c r="Q22" s="68"/>
       <c r="R22" s="15"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13273,11 +13169,11 @@
       <c r="G23" s="13">
         <v>6</v>
       </c>
-      <c r="H23" s="78" cm="1">
+      <c r="H23" s="60" cm="1">
         <f t="array" ref="H23">_xlfn.IFS(G23&gt;20,D23*0.03,G23&gt;10,D23*0.02,G23&gt;5,D23*0.01,G23&lt;5,"")</f>
         <v>1470</v>
       </c>
-      <c r="I23" s="78" cm="1">
+      <c r="I23" s="60" cm="1">
         <f t="array" ref="I23">_xlfn.IFS(E23="Excellent",D23*0.02,E23="Good",D23*0.01,E23="Needs Improvement","")</f>
         <v>1470</v>
       </c>
@@ -13289,7 +13185,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q23" s="66"/>
+      <c r="Q23" s="68"/>
       <c r="R23" s="15"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13314,11 +13210,11 @@
       <c r="G24" s="13">
         <v>9</v>
       </c>
-      <c r="H24" s="78" cm="1">
+      <c r="H24" s="60" cm="1">
         <f t="array" ref="H24">_xlfn.IFS(G24&gt;20,D24*0.03,G24&gt;10,D24*0.02,G24&gt;5,D24*0.01,G24&lt;5,"")</f>
         <v>330</v>
       </c>
-      <c r="I24" s="78" t="str" cm="1">
+      <c r="I24" s="60" t="str" cm="1">
         <f t="array" ref="I24">_xlfn.IFS(E24="Excellent",D24*0.02,E24="Good",D24*0.01,E24="Needs Improvement","")</f>
         <v/>
       </c>
@@ -13353,11 +13249,11 @@
       <c r="G25" s="13">
         <v>12</v>
       </c>
-      <c r="H25" s="78" cm="1">
+      <c r="H25" s="60" cm="1">
         <f t="array" ref="H25">_xlfn.IFS(G25&gt;20,D25*0.03,G25&gt;10,D25*0.02,G25&gt;5,D25*0.01,G25&lt;5,"")</f>
         <v>580</v>
       </c>
-      <c r="I25" s="78" cm="1">
+      <c r="I25" s="60" cm="1">
         <f t="array" ref="I25">_xlfn.IFS(E25="Excellent",D25*0.02,E25="Good",D25*0.01,E25="Needs Improvement","")</f>
         <v>290</v>
       </c>
@@ -13392,11 +13288,11 @@
       <c r="G26" s="13">
         <v>15</v>
       </c>
-      <c r="H26" s="78" cm="1">
+      <c r="H26" s="60" cm="1">
         <f t="array" ref="H26">_xlfn.IFS(G26&gt;20,D26*0.03,G26&gt;10,D26*0.02,G26&gt;5,D26*0.01,G26&lt;5,"")</f>
         <v>1500</v>
       </c>
-      <c r="I26" s="78" cm="1">
+      <c r="I26" s="60" cm="1">
         <f t="array" ref="I26">_xlfn.IFS(E26="Excellent",D26*0.02,E26="Good",D26*0.01,E26="Needs Improvement","")</f>
         <v>1500</v>
       </c>
@@ -13431,11 +13327,11 @@
       <c r="G27" s="13">
         <v>16</v>
       </c>
-      <c r="H27" s="78" cm="1">
+      <c r="H27" s="60" cm="1">
         <f t="array" ref="H27">_xlfn.IFS(G27&gt;20,D27*0.03,G27&gt;10,D27*0.02,G27&gt;5,D27*0.01,G27&lt;5,"")</f>
         <v>1200</v>
       </c>
-      <c r="I27" s="78" cm="1">
+      <c r="I27" s="60" cm="1">
         <f t="array" ref="I27">_xlfn.IFS(E27="Excellent",D27*0.02,E27="Good",D27*0.01,E27="Needs Improvement","")</f>
         <v>600</v>
       </c>
@@ -13470,11 +13366,11 @@
       <c r="G28" s="13">
         <v>1</v>
       </c>
-      <c r="H28" s="78" t="str" cm="1">
+      <c r="H28" s="60" t="str" cm="1">
         <f t="array" ref="H28">_xlfn.IFS(G28&gt;20,D28*0.03,G28&gt;10,D28*0.02,G28&gt;5,D28*0.01,G28&lt;5,"")</f>
         <v/>
       </c>
-      <c r="I28" s="78" cm="1">
+      <c r="I28" s="60" cm="1">
         <f t="array" ref="I28">_xlfn.IFS(E28="Excellent",D28*0.02,E28="Good",D28*0.01,E28="Needs Improvement","")</f>
         <v>1700</v>
       </c>
@@ -13509,11 +13405,11 @@
       <c r="G29" s="13">
         <v>23</v>
       </c>
-      <c r="H29" s="78" cm="1">
+      <c r="H29" s="60" cm="1">
         <f t="array" ref="H29">_xlfn.IFS(G29&gt;20,D29*0.05,G29&gt;10,D29*0.03,G29&gt;5,D29*0.01,G29&lt;5,"")</f>
         <v>7500</v>
       </c>
-      <c r="I29" s="78" cm="1">
+      <c r="I29" s="60" cm="1">
         <f t="array" ref="I29">_xlfn.IFS(E29="Excellent",D29*0.02,E29="Good",D29*0.01,E29="Needs Improvement","")</f>
         <v>1500</v>
       </c>
@@ -13548,11 +13444,11 @@
       <c r="G30" s="13">
         <v>11</v>
       </c>
-      <c r="H30" s="78" cm="1">
+      <c r="H30" s="60" cm="1">
         <f t="array" ref="H30">_xlfn.IFS(G30&gt;20,D30*0.03,G30&gt;10,D30*0.02,G30&gt;5,D30*0.01,G30&lt;5,"")</f>
         <v>1920</v>
       </c>
-      <c r="I30" s="78" t="str" cm="1">
+      <c r="I30" s="60" t="str" cm="1">
         <f t="array" ref="I30">_xlfn.IFS(E30="Excellent",D30*0.02,E30="Good",D30*0.01,E30="Needs Improvement","")</f>
         <v/>
       </c>
@@ -13587,11 +13483,11 @@
       <c r="G31" s="13">
         <v>15</v>
       </c>
-      <c r="H31" s="78" cm="1">
+      <c r="H31" s="60" cm="1">
         <f t="array" ref="H31">_xlfn.IFS(G31&gt;20,D31*0.03,G31&gt;10,D31*0.02,G31&gt;5,D31*0.01,G31&lt;5,"")</f>
         <v>500</v>
       </c>
-      <c r="I31" s="78" cm="1">
+      <c r="I31" s="60" cm="1">
         <f t="array" ref="I31">_xlfn.IFS(E31="Excellent",D31*0.02,E31="Good",D31*0.01,E31="Needs Improvement","")</f>
         <v>250</v>
       </c>
@@ -13626,11 +13522,11 @@
       <c r="G32" s="13">
         <v>10</v>
       </c>
-      <c r="H32" s="78" cm="1">
+      <c r="H32" s="60" cm="1">
         <f t="array" ref="H32">_xlfn.IFS(G32&gt;20,D32*0.03,G32&gt;10,D32*0.02,G32&gt;5,D32*0.01,G32&lt;5,"")</f>
         <v>1110</v>
       </c>
-      <c r="I32" s="78" t="str" cm="1">
+      <c r="I32" s="60" t="str" cm="1">
         <f t="array" ref="I32">_xlfn.IFS(E32="Excellent",D32*0.02,E32="Good",D32*0.01,E32="Needs Improvement","")</f>
         <v/>
       </c>
@@ -13665,11 +13561,11 @@
       <c r="G33" s="13">
         <v>10</v>
       </c>
-      <c r="H33" s="78" cm="1">
+      <c r="H33" s="60" cm="1">
         <f t="array" ref="H33">_xlfn.IFS(G33&gt;20,D33*0.03,G33&gt;10,D33*0.02,G33&gt;5,D33*0.01,G33&lt;5,"")</f>
         <v>1750</v>
       </c>
-      <c r="I33" s="78" t="str" cm="1">
+      <c r="I33" s="60" t="str" cm="1">
         <f t="array" ref="I33">_xlfn.IFS(E33="Excellent",D33*0.02,E33="Good",D33*0.01,E33="Needs Improvement","")</f>
         <v/>
       </c>
@@ -13704,11 +13600,11 @@
       <c r="G34" s="13">
         <v>19</v>
       </c>
-      <c r="H34" s="78" cm="1">
+      <c r="H34" s="60" cm="1">
         <f t="array" ref="H34">_xlfn.IFS(G34&gt;20,D34*0.03,G34&gt;10,D34*0.02,G34&gt;5,D34*0.01,G34&lt;5,"")</f>
         <v>2400</v>
       </c>
-      <c r="I34" s="78" cm="1">
+      <c r="I34" s="60" cm="1">
         <f t="array" ref="I34">_xlfn.IFS(E34="Excellent",D34*0.02,E34="Good",D34*0.01,E34="Needs Improvement","")</f>
         <v>1200</v>
       </c>
@@ -13743,11 +13639,11 @@
       <c r="G35" s="13">
         <v>8</v>
       </c>
-      <c r="H35" s="78" cm="1">
+      <c r="H35" s="60" cm="1">
         <f t="array" ref="H35">_xlfn.IFS(G35&gt;20,D35*0.03,G35&gt;10,D35*0.02,G35&gt;5,D35*0.01,G35&lt;5,"")</f>
         <v>1630</v>
       </c>
-      <c r="I35" s="78" cm="1">
+      <c r="I35" s="60" cm="1">
         <f t="array" ref="I35">_xlfn.IFS(E35="Excellent",D35*0.02,E35="Good",D35*0.01,E35="Needs Improvement","")</f>
         <v>3260</v>
       </c>
@@ -13782,11 +13678,11 @@
       <c r="G36" s="13">
         <v>7</v>
       </c>
-      <c r="H36" s="78" cm="1">
+      <c r="H36" s="60" cm="1">
         <f t="array" ref="H36">_xlfn.IFS(G36&gt;20,D36*0.03,G36&gt;10,D36*0.02,G36&gt;5,D36*0.01,G36&lt;5,"")</f>
         <v>570</v>
       </c>
-      <c r="I36" s="78" cm="1">
+      <c r="I36" s="60" cm="1">
         <f t="array" ref="I36">_xlfn.IFS(E36="Excellent",D36*0.02,E36="Good",D36*0.01,E36="Needs Improvement","")</f>
         <v>570</v>
       </c>
@@ -13821,11 +13717,11 @@
       <c r="G37" s="13">
         <v>9</v>
       </c>
-      <c r="H37" s="78" cm="1">
+      <c r="H37" s="60" cm="1">
         <f t="array" ref="H37">_xlfn.IFS(G37&gt;20,D37*0.03,G37&gt;10,D37*0.02,G37&gt;5,D37*0.01,G37&lt;5,"")</f>
         <v>820</v>
       </c>
-      <c r="I37" s="78" cm="1">
+      <c r="I37" s="60" cm="1">
         <f t="array" ref="I37">_xlfn.IFS(E37="Excellent",D37*0.02,E37="Good",D37*0.01,E37="Needs Improvement","")</f>
         <v>1640</v>
       </c>
@@ -13860,11 +13756,11 @@
       <c r="G38" s="13">
         <v>3</v>
       </c>
-      <c r="H38" s="78" t="str" cm="1">
+      <c r="H38" s="60" t="str" cm="1">
         <f t="array" ref="H38">_xlfn.IFS(G38&gt;20,D38*0.03,G38&gt;10,D38*0.02,G38&gt;5,D38*0.01,G38&lt;5,"")</f>
         <v/>
       </c>
-      <c r="I38" s="78" t="str" cm="1">
+      <c r="I38" s="60" t="str" cm="1">
         <f t="array" ref="I38">_xlfn.IFS(E38="Excellent",D38*0.02,E38="Good",D38*0.01,E38="Needs Improvement","")</f>
         <v/>
       </c>
@@ -13899,11 +13795,11 @@
       <c r="G39" s="13">
         <v>4</v>
       </c>
-      <c r="H39" s="78" t="str" cm="1">
+      <c r="H39" s="60" t="str" cm="1">
         <f t="array" ref="H39">_xlfn.IFS(G39&gt;20,D39*0.03,G39&gt;10,D39*0.02,G39&gt;5,D39*0.01,G39&lt;5,"")</f>
         <v/>
       </c>
-      <c r="I39" s="78" cm="1">
+      <c r="I39" s="60" cm="1">
         <f t="array" ref="I39">_xlfn.IFS(E39="Excellent",D39*0.02,E39="Good",D39*0.01,E39="Needs Improvement","")</f>
         <v>1140</v>
       </c>
@@ -13941,7 +13837,7 @@
     <mergeCell ref="A1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="B20:B39">
-    <cfRule type="top10" dxfId="9" priority="8" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="4" priority="8" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D39">
     <cfRule type="colorScale" priority="7">
@@ -13956,18 +13852,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E39">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
-      <formula>"Excellent"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Good"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Needs Improvement"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"Excellent"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F39">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14040,7 +13936,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14055,13 +13951,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -14104,7 +14000,7 @@
         <v>2064</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H3" s="27"/>
     </row>
@@ -14165,7 +14061,10 @@
         <f t="shared" si="0"/>
         <v>476</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="20">
+        <f>DSUM(A2:E12,E2,G2:H3)</f>
+        <v>4588</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
@@ -14223,7 +14122,10 @@
         <f t="shared" si="0"/>
         <v>516</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="27">
+        <f>DCOUNT(A2:E12,E2,G2:H3)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
@@ -14281,18 +14183,25 @@
         <f t="shared" si="0"/>
         <v>896</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="27">
+        <f>DMIN(A2:E12,E2,G2:H3)</f>
+        <v>516</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="E14" s="79"/>
       <c r="G14" s="27" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="G15" s="27"/>
+      <c r="G15" s="27">
+        <f>DMAX(A2:E12,E2,G2:H3)</f>
+        <v>2440</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
@@ -14305,7 +14214,10 @@
     </row>
     <row r="18" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
-      <c r="G18" s="27"/>
+      <c r="G18" s="27">
+        <f>DAVERAGE(A2:E12,E2,G2:H3)</f>
+        <v>1529.3333333333333</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
@@ -14326,7 +14238,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14403,9 +14315,15 @@
       <c r="G2" s="13">
         <v>82.74</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="I2" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="J2" s="31">
+        <v>2006</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>13</v>
+      </c>
       <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -14485,7 +14403,7 @@
       </c>
       <c r="K5" s="21">
         <f>DSUM(A1:G21,G1,I1:L2)</f>
-        <v>590.25</v>
+        <v>82.74</v>
       </c>
       <c r="L5" s="29" t="s">
         <v>51</v>
@@ -14522,7 +14440,7 @@
       </c>
       <c r="K6" s="21">
         <f>DCOUNT(A1:G21,G1,I1:L2)</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L6" s="29" t="s">
         <v>162</v>
@@ -14559,7 +14477,7 @@
       </c>
       <c r="K7" s="21">
         <f>DMIN(A1:G21,G1,I1:L2)</f>
-        <v>20.22</v>
+        <v>82.74</v>
       </c>
       <c r="L7" s="29" t="s">
         <v>163</v>
@@ -14633,7 +14551,7 @@
       </c>
       <c r="K9" s="21">
         <f>DAVERAGE(A1:G21,G1,I1:L2)</f>
-        <v>29.512499999999999</v>
+        <v>82.74</v>
       </c>
       <c r="L9" s="29" t="s">
         <v>165</v>
@@ -14924,17 +14842,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -15301,10 +15219,10 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="B24" s="74"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="14" t="s">
         <v>188</v>
       </c>
@@ -15315,7 +15233,10 @@
       <c r="B25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="37">
+        <f>SUMIF(A2:A21,B25,E2:E21)</f>
+        <v>253.92000000000002</v>
+      </c>
       <c r="D25" s="13" t="s">
         <v>83</v>
       </c>
@@ -15325,7 +15246,10 @@
       <c r="B26" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="37"/>
+      <c r="C26" s="37">
+        <f>SUMIF(C2:C21,B26,E2:E21)</f>
+        <v>42.209999999999994</v>
+      </c>
       <c r="D26" s="13" t="s">
         <v>83</v>
       </c>
@@ -15337,7 +15261,10 @@
       <c r="B27" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="37"/>
+      <c r="C27" s="37">
+        <f>SUMIFS(E2:E21,A2:A21,A27,C2:C21,B27)</f>
+        <v>160.45999999999998</v>
+      </c>
       <c r="D27" s="13" t="s">
         <v>84</v>
       </c>
@@ -15349,7 +15276,10 @@
       <c r="B28" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="37"/>
+      <c r="C28" s="37">
+        <f>SUMIFS(E2:E21,A2:A21,A28,C2:C21,B28)</f>
+        <v>0</v>
+      </c>
       <c r="D28" s="13" t="s">
         <v>84</v>
       </c>
@@ -15591,16 +15521,19 @@
       <c r="B52" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C52" s="73" t="s">
+      <c r="C52" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="D52" s="74"/>
+      <c r="D52" s="76"/>
     </row>
     <row r="53" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="38">
+        <f>SUMIF(A41:A50,C53,E41:E50)</f>
+        <v>2904</v>
+      </c>
       <c r="C53" s="13" t="s">
         <v>166</v>
       </c>
@@ -15611,7 +15544,10 @@
       <c r="A54" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="38"/>
+      <c r="B54" s="38">
+        <f>SUMIF(B41:B50,C54,E41:E50)</f>
+        <v>3356</v>
+      </c>
       <c r="C54" s="13" t="s">
         <v>177</v>
       </c>
@@ -15621,7 +15557,10 @@
       <c r="A55" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="38"/>
+      <c r="B55" s="38">
+        <f>SUMIFS(E41:E50,A41:A50,C55,B41:B50,D55)</f>
+        <v>1632</v>
+      </c>
       <c r="C55" s="13" t="s">
         <v>170</v>
       </c>
@@ -15633,7 +15572,10 @@
       <c r="A56" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="38"/>
+      <c r="B56" s="38">
+        <f>SUMIFS(E41:E50,A41:A50,C56,B41:B50,D56)</f>
+        <v>1332</v>
+      </c>
       <c r="C56" s="13" t="s">
         <v>168</v>
       </c>
@@ -15656,7 +15598,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Excel_bootcamp/Functions Datasets start files/Functions.xlsx
+++ b/Excel_bootcamp/Functions Datasets start files/Functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddartha/Desktop/github/Excel/Excel_bootcamp/Functions Datasets start files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD6BE76-D1D5-F94B-9EE0-E18849B3B2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9528134C-C629-C04E-AD65-A9267994E882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Formulas" sheetId="4" r:id="rId1"/>
@@ -1057,7 +1057,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1097,6 +1097,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,7 +1220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1375,6 +1387,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2478,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N1316"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2675,7 +2691,10 @@
       <c r="H7" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="13" t="str">
+        <f>_xlfn.XLOOKUP(I2,B4:B11,A4:A11,"Not found",0,1)</f>
+        <v>GR562</v>
+      </c>
       <c r="J7" s="24"/>
       <c r="K7" s="13"/>
     </row>
@@ -9365,8 +9384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9409,7 +9428,7 @@
       <c r="A2" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="83" t="s">
         <v>219</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -9421,14 +9440,20 @@
       <c r="E2" s="24">
         <v>19470000</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="G2" s="13" t="str">
+        <f>INDEX(A2:A20,1,1)</f>
+        <v>Haasl, Joseph</v>
+      </c>
+      <c r="H2" s="13">
+        <f>MATCH(G2,A2:A20,0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="83" t="s">
         <v>237</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -9440,14 +9465,20 @@
       <c r="E3" s="24">
         <v>16347000</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="G3" s="13" t="str">
+        <f>INDEX(A2:B20,5,2)</f>
+        <v>Cont2013</v>
+      </c>
+      <c r="H3" s="13">
+        <f>MATCH(G3,B2:B20,0)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="83" t="s">
         <v>220</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -9464,7 +9495,7 @@
       <c r="A5" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="83" t="s">
         <v>221</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -9478,19 +9509,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="83" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="81">
         <v>751.27</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="82">
         <v>6829000</v>
       </c>
       <c r="G6" s="54" t="s">
@@ -9501,7 +9532,7 @@
       <c r="A7" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="83" t="s">
         <v>223</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -9513,13 +9544,16 @@
       <c r="E7" s="24">
         <v>9663000</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="13" t="str">
+        <f>INDEX(A2:A20,MATCH(G3,B2:B20,0),1)</f>
+        <v>Herrington, Nicholas</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="83" t="s">
         <v>224</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -9531,13 +9565,16 @@
       <c r="E8" s="24">
         <v>249877000</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="13">
+        <f>INDEX(D2:D20,MATCH(G3,B2:B20,0),1)</f>
+        <v>751.27</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="83" t="s">
         <v>225</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -9554,7 +9591,7 @@
       <c r="A10" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="83" t="s">
         <v>226</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -9575,7 +9612,7 @@
       <c r="A11" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="83" t="s">
         <v>227</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -9598,7 +9635,7 @@
       <c r="A12" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="83" t="s">
         <v>228</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -9613,13 +9650,16 @@
       <c r="G12" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="H12" s="56"/>
+      <c r="H12" s="56" t="e">
+        <f>VLOOKUP(H11,A2:E20,1,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="83" t="s">
         <v>229</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -9640,7 +9680,7 @@
       <c r="A14" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="83" t="s">
         <v>230</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -9655,13 +9695,16 @@
       <c r="G14" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="13" t="str">
+        <f>INDEX(A2:A20,MATCH(H11,B2:B20,0),1)</f>
+        <v>Hall, Elizabeth</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="83" t="s">
         <v>231</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -9678,7 +9721,7 @@
       <c r="A16" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="83" t="s">
         <v>232</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -9696,7 +9739,7 @@
       <c r="A17" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="83" t="s">
         <v>233</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -9713,7 +9756,7 @@
       <c r="A18" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="83" t="s">
         <v>234</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -9728,7 +9771,7 @@
       <c r="A19" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="83" t="s">
         <v>235</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -9745,7 +9788,7 @@
       <c r="A20" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="83" t="s">
         <v>236</v>
       </c>
       <c r="C20" s="13" t="s">
